--- a/sample2.xlsx
+++ b/sample2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\csv-to-publishednodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E73B10D-4CA0-4777-A0E0-3D5B5529C53B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FD5DE6-414C-4B00-90B3-36083665F100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31215" yWindow="1905" windowWidth="21315" windowHeight="13035" xr2:uid="{4C5FC36E-C510-4FDF-BFBE-0A2EE0187BF4}"/>
+    <workbookView xWindow="30015" yWindow="4050" windowWidth="21315" windowHeight="10845" xr2:uid="{4C5FC36E-C510-4FDF-BFBE-0A2EE0187BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,12 +45,6 @@
     <t>OpcAuthenticationMode</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>OpcNodes_Id</t>
   </si>
   <si>
@@ -85,6 +79,12 @@
   </si>
   <si>
     <t>STATUS2</t>
+  </si>
+  <si>
+    <t>OpcAuthenticationUsername</t>
+  </si>
+  <si>
+    <t>OpcAuthenticationPassword</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,42 +469,42 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>1000</v>
@@ -513,7 +513,7 @@
         <v>5000</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -521,13 +521,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -536,7 +536,7 @@
         <v>5000</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -544,13 +544,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/sample2.xlsx
+++ b/sample2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\csv-to-publishednodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FD5DE6-414C-4B00-90B3-36083665F100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AE97F9-F20B-42D1-9613-C7DE5FFD8A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30015" yWindow="4050" windowWidth="21315" windowHeight="10845" xr2:uid="{4C5FC36E-C510-4FDF-BFBE-0A2EE0187BF4}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{4C5FC36E-C510-4FDF-BFBE-0A2EE0187BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>EndpointUrl</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>OpcAuthenticationPassword</t>
+  </si>
+  <si>
+    <t>UsernamePassword</t>
+  </si>
+  <si>
+    <t>apm\\pen470ccr</t>
+  </si>
+  <si>
+    <t>pen470CCR</t>
   </si>
 </sst>
 </file>
@@ -439,7 +448,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +510,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -520,12 +538,6 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
@@ -543,12 +555,6 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
